--- a/Documents gestion de projet/Gantt.xlsx
+++ b/Documents gestion de projet/Gantt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ECL\Module Pro\PAr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ECL\Module Pro\PAr\PAr-Analyse-vitesse-rotation\Documents gestion de projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620FEF15-14E2-4694-B989-B2FF372FED18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0A80CA-3341-4C40-A1E3-445EC68E5FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A50402F3-DBE6-47DF-B133-C53C56A7BDB6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Tâches</t>
   </si>
@@ -66,9 +66,6 @@
     <t>1: Gestion de projet</t>
   </si>
   <si>
-    <t>2: Captation vidéo</t>
-  </si>
-  <si>
     <t>3: Tracking</t>
   </si>
   <si>
@@ -145,6 +142,27 @@
   </si>
   <si>
     <t>Communication extérieure</t>
+  </si>
+  <si>
+    <t>Constitution du jeu de données</t>
+  </si>
+  <si>
+    <t>2: Données vidéos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Choix des approches à tester et comparer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Implémentations des différentes solutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Test et comparaison</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Amélioration et hybridation</t>
+  </si>
+  <si>
+    <t>Formulation du problème</t>
   </si>
 </sst>
 </file>
@@ -235,12 +253,6 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -250,6 +262,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E75C00C-C9E1-4D72-BF2E-FDFD5B5E2B19}">
-  <dimension ref="A1:AG26"/>
+  <dimension ref="A1:AG32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,64 +597,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3" t="s">
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3" t="s">
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3" t="s">
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3" t="s">
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
       <c r="D2">
         <v>40</v>
       </c>
@@ -733,230 +751,342 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="3"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="F14" s="8"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="8"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="10"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="8"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="8"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="V25" s="7"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="10"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="10"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V19" s="9"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="W29" s="8"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="W23" s="10"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="W31" s="8"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="W25" s="10"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Documents gestion de projet/Gantt.xlsx
+++ b/Documents gestion de projet/Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ECL\Module Pro\PAr\PAr-Analyse-vitesse-rotation\Documents gestion de projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0A80CA-3341-4C40-A1E3-445EC68E5FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9628AD09-09A0-4948-952F-A5320272661C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A50402F3-DBE6-47DF-B133-C53C56A7BDB6}"/>
   </bookViews>
@@ -93,9 +93,6 @@
     <t>RVP</t>
   </si>
   <si>
-    <t>Connexion logiciel (format de données…)</t>
-  </si>
-  <si>
     <t>Position des caméras</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>Formulation du problème</t>
+  </si>
+  <si>
+    <t>Numérisation des données</t>
   </si>
 </sst>
 </file>
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E75C00C-C9E1-4D72-BF2E-FDFD5B5E2B19}">
   <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="AI47" sqref="AI47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,7 +760,7 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="8"/>
       <c r="AC6" s="3"/>
@@ -796,7 +796,7 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="8"/>
       <c r="Q7" s="3"/>
@@ -808,7 +808,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -817,9 +817,9 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -830,7 +830,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -842,7 +842,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -852,7 +852,7 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -870,15 +870,15 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="F14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -898,7 +898,7 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -916,7 +916,7 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -934,7 +934,7 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -952,7 +952,7 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -972,7 +972,7 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
@@ -992,7 +992,7 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V25" s="7"/>
       <c r="W25" s="8"/>
@@ -1036,14 +1036,14 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q27" s="9"/>
       <c r="R27" s="9"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S28" s="9"/>
       <c r="T28" s="9"/>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W29" s="8"/>
       <c r="X29" s="9"/>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W31" s="8"/>
       <c r="X31" s="10"/>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y32" s="8"/>
       <c r="Z32" s="10"/>
